--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angptl1-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angptl1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Angptl1</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Angptl1</t>
-  </si>
-  <si>
-    <t>Tek</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.7534920000000001</v>
+        <v>0.5700094999999999</v>
       </c>
       <c r="H2">
-        <v>1.506984</v>
+        <v>1.140019</v>
       </c>
       <c r="I2">
-        <v>0.02928944129956266</v>
+        <v>0.02333365131157428</v>
       </c>
       <c r="J2">
-        <v>0.01999218558591364</v>
+        <v>0.01581699091951973</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N2">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O2">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P2">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q2">
-        <v>52.923405275634</v>
+        <v>38.0895709656025</v>
       </c>
       <c r="R2">
-        <v>211.693621102536</v>
+        <v>152.35828386241</v>
       </c>
       <c r="S2">
-        <v>0.01720823226798909</v>
+        <v>0.022131490064722</v>
       </c>
       <c r="T2">
-        <v>0.009809052889349404</v>
+        <v>0.01467947278195746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.7534920000000001</v>
+        <v>0.5700094999999999</v>
       </c>
       <c r="H3">
-        <v>1.506984</v>
+        <v>1.140019</v>
       </c>
       <c r="I3">
-        <v>0.02928944129956266</v>
+        <v>0.02333365131157428</v>
       </c>
       <c r="J3">
-        <v>0.01999218558591364</v>
+        <v>0.01581699091951973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O3">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P3">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q3">
-        <v>2.113394863928</v>
+        <v>1.598763025606333</v>
       </c>
       <c r="R3">
-        <v>12.680369183568</v>
+        <v>9.592578153637998</v>
       </c>
       <c r="S3">
-        <v>0.0006871778091949798</v>
+        <v>0.0009289421518820659</v>
       </c>
       <c r="T3">
-        <v>0.0005875586204737313</v>
+        <v>0.0009242292991583805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.7534920000000001</v>
+        <v>0.5700094999999999</v>
       </c>
       <c r="H4">
-        <v>1.506984</v>
+        <v>1.140019</v>
       </c>
       <c r="I4">
-        <v>0.02928944129956266</v>
+        <v>0.02333365131157428</v>
       </c>
       <c r="J4">
-        <v>0.01999218558591364</v>
+        <v>0.01581699091951973</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N4">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O4">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P4">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q4">
-        <v>1.58279094639</v>
+        <v>0.04210793178716666</v>
       </c>
       <c r="R4">
-        <v>6.331163785560001</v>
+        <v>0.252647590723</v>
       </c>
       <c r="S4">
-        <v>0.0005146500701399375</v>
+        <v>2.446631060337357E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002933613214240949</v>
+        <v>2.434218433960997E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.7534920000000001</v>
+        <v>0.5700094999999999</v>
       </c>
       <c r="H5">
-        <v>1.506984</v>
+        <v>1.140019</v>
       </c>
       <c r="I5">
-        <v>0.02928944129956266</v>
+        <v>0.02333365131157428</v>
       </c>
       <c r="J5">
-        <v>0.01999218558591364</v>
+        <v>0.01581699091951973</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N5">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O5">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P5">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q5">
-        <v>33.37913550428001</v>
+        <v>0.30381477849525</v>
       </c>
       <c r="R5">
-        <v>200.27481302568</v>
+        <v>1.215259113981</v>
       </c>
       <c r="S5">
-        <v>0.01085334387821004</v>
+        <v>0.0001765279466617112</v>
       </c>
       <c r="T5">
-        <v>0.009279950067186621</v>
+        <v>0.000117088238554984</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.7534920000000001</v>
+        <v>0.5700094999999999</v>
       </c>
       <c r="H6">
-        <v>1.506984</v>
+        <v>1.140019</v>
       </c>
       <c r="I6">
-        <v>0.02928944129956266</v>
+        <v>0.02333365131157428</v>
       </c>
       <c r="J6">
-        <v>0.01999218558591364</v>
+        <v>0.01581699091951973</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N6">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O6">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P6">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q6">
-        <v>0.08007685997200001</v>
+        <v>0.124303111684</v>
       </c>
       <c r="R6">
-        <v>0.4804611598320001</v>
+        <v>0.7458186701039998</v>
       </c>
       <c r="S6">
-        <v>2.603727402862034E-05</v>
+        <v>7.222483770512481E-05</v>
       </c>
       <c r="T6">
-        <v>2.226268747978721E-05</v>
+        <v>7.185841550928979E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -859,10 +859,10 @@
         <v>69.345963</v>
       </c>
       <c r="I7">
-        <v>0.8985295630876612</v>
+        <v>0.9462383349209275</v>
       </c>
       <c r="J7">
-        <v>0.9199682026683099</v>
+        <v>0.9621282338946555</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N7">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O7">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P7">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q7">
-        <v>1623.562693909654</v>
+        <v>1544.628045010095</v>
       </c>
       <c r="R7">
-        <v>9741.376163457928</v>
+        <v>9267.768270060571</v>
       </c>
       <c r="S7">
-        <v>0.5279071479420162</v>
+        <v>0.8974876682833529</v>
       </c>
       <c r="T7">
-        <v>0.4513772002422499</v>
+        <v>0.89293439530142</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -921,10 +921,10 @@
         <v>69.345963</v>
       </c>
       <c r="I8">
-        <v>0.8985295630876612</v>
+        <v>0.9462383349209275</v>
       </c>
       <c r="J8">
-        <v>0.9199682026683099</v>
+        <v>0.9621282338946555</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O8">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P8">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q8">
         <v>64.833867751014</v>
@@ -951,10 +951,10 @@
         <v>583.5048097591259</v>
       </c>
       <c r="S8">
-        <v>0.0210809612359769</v>
+        <v>0.03767094413546565</v>
       </c>
       <c r="T8">
-        <v>0.02703732644520606</v>
+        <v>0.05621973912974519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>69.345963</v>
       </c>
       <c r="I9">
-        <v>0.8985295630876612</v>
+        <v>0.9462383349209275</v>
       </c>
       <c r="J9">
-        <v>0.9199682026683099</v>
+        <v>0.9621282338946555</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N9">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O9">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P9">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q9">
-        <v>48.5562166575075</v>
+        <v>1.707582698019</v>
       </c>
       <c r="R9">
-        <v>291.337299945045</v>
+        <v>15.368244282171</v>
       </c>
       <c r="S9">
-        <v>0.01578822545422801</v>
+        <v>0.000992170522215303</v>
       </c>
       <c r="T9">
-        <v>0.01349942888650868</v>
+        <v>0.001480705334344228</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>69.345963</v>
       </c>
       <c r="I10">
-        <v>0.8985295630876612</v>
+        <v>0.9462383349209275</v>
       </c>
       <c r="J10">
-        <v>0.9199682026683099</v>
+        <v>0.9621282338946555</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N10">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O10">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P10">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q10">
-        <v>1023.99153791139</v>
+        <v>12.3204545353395</v>
       </c>
       <c r="R10">
-        <v>9215.92384120251</v>
+        <v>73.92272721203699</v>
       </c>
       <c r="S10">
-        <v>0.3329544675566694</v>
+        <v>0.007158652886585805</v>
       </c>
       <c r="T10">
-        <v>0.4270297985917375</v>
+        <v>0.007122334503696075</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,40 +1107,40 @@
         <v>69.345963</v>
       </c>
       <c r="I11">
-        <v>0.8985295630876612</v>
+        <v>0.9462383349209275</v>
       </c>
       <c r="J11">
-        <v>0.9199682026683099</v>
+        <v>0.9621282338946555</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N11">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O11">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P11">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q11">
-        <v>2.456565329061</v>
+        <v>5.040804281111999</v>
       </c>
       <c r="R11">
-        <v>22.109087961549</v>
+        <v>45.367238530008</v>
       </c>
       <c r="S11">
-        <v>0.0007987608987706868</v>
+        <v>0.002928899093307854</v>
       </c>
       <c r="T11">
-        <v>0.001024448502607783</v>
+        <v>0.004371059625449958</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.254607</v>
+        <v>0.6403345</v>
       </c>
       <c r="H12">
-        <v>0.763821</v>
+        <v>1.280669</v>
       </c>
       <c r="I12">
-        <v>0.0098969820262959</v>
+        <v>0.02621244373255404</v>
       </c>
       <c r="J12">
-        <v>0.01013312097966411</v>
+        <v>0.01776841433687545</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N12">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O12">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P12">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q12">
-        <v>17.8829628543015</v>
+        <v>42.78887699147751</v>
       </c>
       <c r="R12">
-        <v>107.297777125809</v>
+        <v>171.15550796591</v>
       </c>
       <c r="S12">
-        <v>0.005814708574285987</v>
+        <v>0.02486196567749964</v>
       </c>
       <c r="T12">
-        <v>0.004971758550187493</v>
+        <v>0.01649055474355839</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.254607</v>
+        <v>0.6403345</v>
       </c>
       <c r="H13">
-        <v>0.763821</v>
+        <v>1.280669</v>
       </c>
       <c r="I13">
-        <v>0.0098969820262959</v>
+        <v>0.02621244373255404</v>
       </c>
       <c r="J13">
-        <v>0.01013312097966411</v>
+        <v>0.01776841433687545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O13">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P13">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q13">
-        <v>0.7141218833379999</v>
+        <v>1.796010632489667</v>
       </c>
       <c r="R13">
-        <v>6.427096950041999</v>
+        <v>10.776063794938</v>
       </c>
       <c r="S13">
-        <v>0.0002321992542265959</v>
+        <v>0.001043550516884941</v>
       </c>
       <c r="T13">
-        <v>0.0002978064883561244</v>
+        <v>0.001038256215312082</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.254607</v>
+        <v>0.6403345</v>
       </c>
       <c r="H14">
-        <v>0.763821</v>
+        <v>1.280669</v>
       </c>
       <c r="I14">
-        <v>0.0098969820262959</v>
+        <v>0.02621244373255404</v>
       </c>
       <c r="J14">
-        <v>0.01013312097966411</v>
+        <v>0.01776841433687545</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N14">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O14">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P14">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q14">
-        <v>0.5348293737524999</v>
+        <v>0.04730300362883334</v>
       </c>
       <c r="R14">
-        <v>3.208976242515</v>
+        <v>0.283818021773</v>
       </c>
       <c r="S14">
-        <v>0.0001739016610768516</v>
+        <v>2.748484501934778E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001486913848398348</v>
+        <v>2.734540466082054E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.254607</v>
+        <v>0.6403345</v>
       </c>
       <c r="H15">
-        <v>0.763821</v>
+        <v>1.280669</v>
       </c>
       <c r="I15">
-        <v>0.0098969820262959</v>
+        <v>0.02621244373255404</v>
       </c>
       <c r="J15">
-        <v>0.01013312097966411</v>
+        <v>0.01776841433687545</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N15">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O15">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P15">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q15">
-        <v>11.27890084213</v>
+        <v>0.34129796833275</v>
       </c>
       <c r="R15">
-        <v>101.51010757917</v>
+        <v>1.365191873331</v>
       </c>
       <c r="S15">
-        <v>0.003667374470862894</v>
+        <v>0.0001983071062177972</v>
       </c>
       <c r="T15">
-        <v>0.004703580622135704</v>
+        <v>0.0001315340159962008</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.254607</v>
+        <v>0.6403345</v>
       </c>
       <c r="H16">
-        <v>0.763821</v>
+        <v>1.280669</v>
       </c>
       <c r="I16">
-        <v>0.0098969820262959</v>
+        <v>0.02621244373255404</v>
       </c>
       <c r="J16">
-        <v>0.01013312097966411</v>
+        <v>0.01776841433687545</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N16">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O16">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P16">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q16">
-        <v>0.027058189187</v>
+        <v>0.139639025084</v>
       </c>
       <c r="R16">
-        <v>0.243523702683</v>
+        <v>0.8378341505039999</v>
       </c>
       <c r="S16">
-        <v>8.798065843572247E-06</v>
+        <v>8.113558693230945E-05</v>
       </c>
       <c r="T16">
-        <v>1.128393414495346E-05</v>
+        <v>8.072395734796233E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,19 +1470,19 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.0450195</v>
+        <v>0.1029806666666667</v>
       </c>
       <c r="H17">
-        <v>2.090039</v>
+        <v>0.308942</v>
       </c>
       <c r="I17">
-        <v>0.04062158231560298</v>
+        <v>0.004215570034944084</v>
       </c>
       <c r="J17">
-        <v>0.02772720053417777</v>
+        <v>0.004286360848949241</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N17">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O17">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P17">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q17">
-        <v>73.39957228403276</v>
+        <v>6.881445679563334</v>
       </c>
       <c r="R17">
-        <v>293.598289136131</v>
+        <v>41.28867407738001</v>
       </c>
       <c r="S17">
-        <v>0.02386613033791709</v>
+        <v>0.003998381783447085</v>
       </c>
       <c r="T17">
-        <v>0.01360419426603264</v>
+        <v>0.003978096575761899</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,19 +1532,19 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.0450195</v>
+        <v>0.1029806666666667</v>
       </c>
       <c r="H18">
-        <v>2.090039</v>
+        <v>0.308942</v>
       </c>
       <c r="I18">
-        <v>0.04062158231560298</v>
+        <v>0.004215570034944084</v>
       </c>
       <c r="J18">
-        <v>0.02772720053417777</v>
+        <v>0.004286360848949241</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O18">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P18">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q18">
-        <v>2.931071390279667</v>
+        <v>0.2888402425204444</v>
       </c>
       <c r="R18">
-        <v>17.586428341678</v>
+        <v>2.599562182684</v>
       </c>
       <c r="S18">
-        <v>0.0009530482215816932</v>
+        <v>0.0001678271714692177</v>
       </c>
       <c r="T18">
-        <v>0.0008148861776742797</v>
+        <v>0.000250463587133713</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.0450195</v>
+        <v>0.1029806666666667</v>
       </c>
       <c r="H19">
-        <v>2.090039</v>
+        <v>0.308942</v>
       </c>
       <c r="I19">
-        <v>0.04062158231560298</v>
+        <v>0.004215570034944084</v>
       </c>
       <c r="J19">
-        <v>0.02772720053417777</v>
+        <v>0.004286360848949241</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N19">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O19">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P19">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q19">
-        <v>2.19517579934625</v>
+        <v>0.007607422134888888</v>
       </c>
       <c r="R19">
-        <v>8.780703197385</v>
+        <v>0.06846679921400001</v>
       </c>
       <c r="S19">
-        <v>0.0007137691693775149</v>
+        <v>4.420201727881984E-06</v>
       </c>
       <c r="T19">
-        <v>0.0004068633793510044</v>
+        <v>6.59666471720891E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.0450195</v>
+        <v>0.1029806666666667</v>
       </c>
       <c r="H20">
-        <v>2.090039</v>
+        <v>0.308942</v>
       </c>
       <c r="I20">
-        <v>0.04062158231560298</v>
+        <v>0.004215570034944084</v>
       </c>
       <c r="J20">
-        <v>0.02772720053417777</v>
+        <v>0.004286360848949241</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N20">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O20">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P20">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q20">
-        <v>46.29358705217167</v>
+        <v>0.054888643843</v>
       </c>
       <c r="R20">
-        <v>277.76152231303</v>
+        <v>0.329331863058</v>
       </c>
       <c r="S20">
-        <v>0.01505252344143683</v>
+        <v>3.189239062247346E-05</v>
       </c>
       <c r="T20">
-        <v>0.01287038054715422</v>
+        <v>3.173058922320932E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,681 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.0450195</v>
+        <v>0.1029806666666667</v>
       </c>
       <c r="H21">
-        <v>2.090039</v>
+        <v>0.308942</v>
       </c>
       <c r="I21">
-        <v>0.04062158231560298</v>
+        <v>0.004215570034944084</v>
       </c>
       <c r="J21">
-        <v>0.02772720053417777</v>
+        <v>0.004286360848949241</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N21">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O21">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P21">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q21">
-        <v>0.1110587506828333</v>
+        <v>0.02245719994133333</v>
       </c>
       <c r="R21">
-        <v>0.6663525040970001</v>
+        <v>0.202114799472</v>
       </c>
       <c r="S21">
-        <v>3.611114528986614E-05</v>
+        <v>1.304848767742565E-05</v>
       </c>
       <c r="T21">
-        <v>3.087616396562072E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.2780776666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.834233</v>
-      </c>
-      <c r="I22">
-        <v>0.01080932444478865</v>
-      </c>
-      <c r="J22">
-        <v>0.01106723160822775</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>70.2375145</v>
-      </c>
-      <c r="N22">
-        <v>140.475029</v>
-      </c>
-      <c r="O22">
-        <v>0.5875234044920492</v>
-      </c>
-      <c r="P22">
-        <v>0.4906443493732269</v>
-      </c>
-      <c r="Q22">
-        <v>19.53148414462617</v>
-      </c>
-      <c r="R22">
-        <v>117.188904867757</v>
-      </c>
-      <c r="S22">
-        <v>0.006350731098061354</v>
-      </c>
-      <c r="T22">
-        <v>0.005430074651781718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.2780776666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.834233</v>
-      </c>
-      <c r="I23">
-        <v>0.01080932444478865</v>
-      </c>
-      <c r="J23">
-        <v>0.01106723160822775</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.804800666666666</v>
-      </c>
-      <c r="N23">
-        <v>8.414401999999999</v>
-      </c>
-      <c r="O23">
-        <v>0.02346162230159168</v>
-      </c>
-      <c r="P23">
-        <v>0.02938941407625393</v>
-      </c>
-      <c r="Q23">
-        <v>0.7799524248517777</v>
-      </c>
-      <c r="R23">
-        <v>7.019571823665999</v>
-      </c>
-      <c r="S23">
-        <v>0.0002536042874589934</v>
-      </c>
-      <c r="T23">
-        <v>0.0003252594524120111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.2780776666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.834233</v>
-      </c>
-      <c r="I24">
-        <v>0.01080932444478865</v>
-      </c>
-      <c r="J24">
-        <v>0.01106723160822775</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.1006075</v>
-      </c>
-      <c r="N24">
-        <v>4.201215</v>
-      </c>
-      <c r="O24">
-        <v>0.01757118085238526</v>
-      </c>
-      <c r="P24">
-        <v>0.01467379942845245</v>
-      </c>
-      <c r="Q24">
-        <v>0.5841320321825001</v>
-      </c>
-      <c r="R24">
-        <v>3.504792193095</v>
-      </c>
-      <c r="S24">
-        <v>0.0001899325947114902</v>
-      </c>
-      <c r="T24">
-        <v>0.0001623983368473633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.2780776666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.834233</v>
-      </c>
-      <c r="I25">
-        <v>0.01080932444478865</v>
-      </c>
-      <c r="J25">
-        <v>0.01106723160822775</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>44.29925666666667</v>
-      </c>
-      <c r="N25">
-        <v>132.89777</v>
-      </c>
-      <c r="O25">
-        <v>0.3705548278372964</v>
-      </c>
-      <c r="P25">
-        <v>0.4641788676534301</v>
-      </c>
-      <c r="Q25">
-        <v>12.31863392893445</v>
-      </c>
-      <c r="R25">
-        <v>110.86770536041</v>
-      </c>
-      <c r="S25">
-        <v>0.004005447358676136</v>
-      </c>
-      <c r="T25">
-        <v>0.005137175035965409</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.2780776666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.834233</v>
-      </c>
-      <c r="I26">
-        <v>0.01080932444478865</v>
-      </c>
-      <c r="J26">
-        <v>0.01106723160822775</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.1062743333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.318823</v>
-      </c>
-      <c r="O26">
-        <v>0.000888964516677521</v>
-      </c>
-      <c r="P26">
-        <v>0.001113569468636453</v>
-      </c>
-      <c r="Q26">
-        <v>0.02955251863988889</v>
-      </c>
-      <c r="R26">
-        <v>0.265972667759</v>
-      </c>
-      <c r="S26">
-        <v>9.609105880672051E-06</v>
-      </c>
-      <c r="T26">
-        <v>1.232413122125074E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.279204</v>
-      </c>
-      <c r="H27">
-        <v>0.837612</v>
-      </c>
-      <c r="I27">
-        <v>0.01085310682608852</v>
-      </c>
-      <c r="J27">
-        <v>0.01111205862370688</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>70.2375145</v>
-      </c>
-      <c r="N27">
-        <v>140.475029</v>
-      </c>
-      <c r="O27">
-        <v>0.5875234044920492</v>
-      </c>
-      <c r="P27">
-        <v>0.4906443493732269</v>
-      </c>
-      <c r="Q27">
-        <v>19.610594998458</v>
-      </c>
-      <c r="R27">
-        <v>117.663569990748</v>
-      </c>
-      <c r="S27">
-        <v>0.006376454271779428</v>
-      </c>
-      <c r="T27">
-        <v>0.00545206877362582</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.279204</v>
-      </c>
-      <c r="H28">
-        <v>0.837612</v>
-      </c>
-      <c r="I28">
-        <v>0.01085310682608852</v>
-      </c>
-      <c r="J28">
-        <v>0.01111205862370688</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>2.804800666666666</v>
-      </c>
-      <c r="N28">
-        <v>8.414401999999999</v>
-      </c>
-      <c r="O28">
-        <v>0.02346162230159168</v>
-      </c>
-      <c r="P28">
-        <v>0.02938941407625393</v>
-      </c>
-      <c r="Q28">
-        <v>0.783111565336</v>
-      </c>
-      <c r="R28">
-        <v>7.048004088023999</v>
-      </c>
-      <c r="S28">
-        <v>0.0002546314931525154</v>
-      </c>
-      <c r="T28">
-        <v>0.00032657689213173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.279204</v>
-      </c>
-      <c r="H29">
-        <v>0.837612</v>
-      </c>
-      <c r="I29">
-        <v>0.01085310682608852</v>
-      </c>
-      <c r="J29">
-        <v>0.01111205862370688</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>2.1006075</v>
-      </c>
-      <c r="N29">
-        <v>4.201215</v>
-      </c>
-      <c r="O29">
-        <v>0.01757118085238526</v>
-      </c>
-      <c r="P29">
-        <v>0.01467379942845245</v>
-      </c>
-      <c r="Q29">
-        <v>0.5864980164300001</v>
-      </c>
-      <c r="R29">
-        <v>3.51898809858</v>
-      </c>
-      <c r="S29">
-        <v>0.0001907019028514584</v>
-      </c>
-      <c r="T29">
-        <v>0.0001630561194814802</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.279204</v>
-      </c>
-      <c r="H30">
-        <v>0.837612</v>
-      </c>
-      <c r="I30">
-        <v>0.01085310682608852</v>
-      </c>
-      <c r="J30">
-        <v>0.01111205862370688</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>44.29925666666667</v>
-      </c>
-      <c r="N30">
-        <v>132.89777</v>
-      </c>
-      <c r="O30">
-        <v>0.3705548278372964</v>
-      </c>
-      <c r="P30">
-        <v>0.4641788676534301</v>
-      </c>
-      <c r="Q30">
-        <v>12.36852965836</v>
-      </c>
-      <c r="R30">
-        <v>111.31676692524</v>
-      </c>
-      <c r="S30">
-        <v>0.004021671131441019</v>
-      </c>
-      <c r="T30">
-        <v>0.005157982789250795</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.279204</v>
-      </c>
-      <c r="H31">
-        <v>0.837612</v>
-      </c>
-      <c r="I31">
-        <v>0.01085310682608852</v>
-      </c>
-      <c r="J31">
-        <v>0.01111205862370688</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.1062743333333333</v>
-      </c>
-      <c r="N31">
-        <v>0.318823</v>
-      </c>
-      <c r="O31">
-        <v>0.000888964516677521</v>
-      </c>
-      <c r="P31">
-        <v>0.001113569468636453</v>
-      </c>
-      <c r="Q31">
-        <v>0.02967221896400001</v>
-      </c>
-      <c r="R31">
-        <v>0.267049970676</v>
-      </c>
-      <c r="S31">
-        <v>9.648026864103288E-06</v>
-      </c>
-      <c r="T31">
-        <v>1.237404921705839E-05</v>
+        <v>1.947343211321128E-05</v>
       </c>
     </row>
   </sheetData>
